--- a/data/deathIntensity.xlsx
+++ b/data/deathIntensity.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\livsprojekt\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annasailegtim/Desktop/Projects in Life insurance/livsprojekt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{124BB7D6-0F75-4FD3-A1C5-1DC24C0CF3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB53E52-39E0-1B4C-97FB-F068645A9663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
   <si>
     <t>Alder</t>
   </si>
@@ -45,6 +46,282 @@
   </si>
   <si>
     <t>Unisex with levetidsforberinger 20 årig fra 2024</t>
+  </si>
+  <si>
+    <t>Unisex</t>
+  </si>
+  <si>
+    <t>0.000237843900698761</t>
+  </si>
+  <si>
+    <t>0.000263187445130879</t>
+  </si>
+  <si>
+    <t>0.000277086569429941</t>
+  </si>
+  <si>
+    <t>0.000278380820585172</t>
+  </si>
+  <si>
+    <t>0.000267302029011186</t>
+  </si>
+  <si>
+    <t>0.00024872643163217</t>
+  </si>
+  <si>
+    <t>0.000224373844565832</t>
+  </si>
+  <si>
+    <t>0.000202432825161789</t>
+  </si>
+  <si>
+    <t>0.000187696637738684</t>
+  </si>
+  <si>
+    <t>0.000176354531118203</t>
+  </si>
+  <si>
+    <t>0.000173161116360033</t>
+  </si>
+  <si>
+    <t>0.00017780701131993</t>
+  </si>
+  <si>
+    <t>0.000182742438298312</t>
+  </si>
+  <si>
+    <t>0.000188666485238456</t>
+  </si>
+  <si>
+    <t>0.000200603124302595</t>
+  </si>
+  <si>
+    <t>0.000214505910488651</t>
+  </si>
+  <si>
+    <t>0.000227567337695566</t>
+  </si>
+  <si>
+    <t>0.000243152623713272</t>
+  </si>
+  <si>
+    <t>0.000259792506760682</t>
+  </si>
+  <si>
+    <t>0.000275394181005204</t>
+  </si>
+  <si>
+    <t>0.000293073406104846</t>
+  </si>
+  <si>
+    <t>0.000312520145813204</t>
+  </si>
+  <si>
+    <t>0.00033003220147906</t>
+  </si>
+  <si>
+    <t>0.000343124521855473</t>
+  </si>
+  <si>
+    <t>0.000350006384080204</t>
+  </si>
+  <si>
+    <t>0.000355251932039268</t>
+  </si>
+  <si>
+    <t>0.000363695821215692</t>
+  </si>
+  <si>
+    <t>0.000377106607392996</t>
+  </si>
+  <si>
+    <t>0.000403162364368498</t>
+  </si>
+  <si>
+    <t>0.00043557151786014</t>
+  </si>
+  <si>
+    <t>0.000472286180810062</t>
+  </si>
+  <si>
+    <t>0.000513552437247579</t>
+  </si>
+  <si>
+    <t>0.000557481820207702</t>
+  </si>
+  <si>
+    <t>0.000612629241976769</t>
+  </si>
+  <si>
+    <t>0.000705503521804928</t>
+  </si>
+  <si>
+    <t>0.000825427812112325</t>
+  </si>
+  <si>
+    <t>0.00098909493135431</t>
+  </si>
+  <si>
+    <t>0.00120370030272727</t>
+  </si>
+  <si>
+    <t>0.00144113077384911</t>
+  </si>
+  <si>
+    <t>0.00168039298754765</t>
+  </si>
+  <si>
+    <t>0.00193799639198696</t>
+  </si>
+  <si>
+    <t>0.00220598092225415</t>
+  </si>
+  <si>
+    <t>0.00248173510748571</t>
+  </si>
+  <si>
+    <t>0.0028457810625531</t>
+  </si>
+  <si>
+    <t>0.0032505540843472</t>
+  </si>
+  <si>
+    <t>0.00366945583901747</t>
+  </si>
+  <si>
+    <t>0.00403740890950782</t>
+  </si>
+  <si>
+    <t>0.0043233853160627</t>
+  </si>
+  <si>
+    <t>0.00444111952914497</t>
+  </si>
+  <si>
+    <t>0.00443426403441276</t>
+  </si>
+  <si>
+    <t>0.00437888257810178</t>
+  </si>
+  <si>
+    <t>0.00431598022666843</t>
+  </si>
+  <si>
+    <t>0.00430741602270499</t>
+  </si>
+  <si>
+    <t>0.00442693773996444</t>
+  </si>
+  <si>
+    <t>0.00467810877701607</t>
+  </si>
+  <si>
+    <t>0.00499385126809389</t>
+  </si>
+  <si>
+    <t>0.0054296540991838</t>
+  </si>
+  <si>
+    <t>0.00600411177025861</t>
+  </si>
+  <si>
+    <t>0.00669995285936512</t>
+  </si>
+  <si>
+    <t>0.00764410684012476</t>
+  </si>
+  <si>
+    <t>0.00896483893082087</t>
+  </si>
+  <si>
+    <t>0.01079738855936</t>
+  </si>
+  <si>
+    <t>0.0132148297559699</t>
+  </si>
+  <si>
+    <t>0.0165369897795931</t>
+  </si>
+  <si>
+    <t>0.0209457116330729</t>
+  </si>
+  <si>
+    <t>0.0270349059610527</t>
+  </si>
+  <si>
+    <t>0.0349300928844176</t>
+  </si>
+  <si>
+    <t>0.0452083779176479</t>
+  </si>
+  <si>
+    <t>0.0576769016661532</t>
+  </si>
+  <si>
+    <t>0.0714036754128106</t>
+  </si>
+  <si>
+    <t>0.0873931897593517</t>
+  </si>
+  <si>
+    <t>0.106165195413158</t>
+  </si>
+  <si>
+    <t>0.128392420013277</t>
+  </si>
+  <si>
+    <t>0.155790313863983</t>
+  </si>
+  <si>
+    <t>0.190471720812239</t>
+  </si>
+  <si>
+    <t>0.229481337089461</t>
+  </si>
+  <si>
+    <t>0.274771763332549</t>
+  </si>
+  <si>
+    <t>0.314758304741483</t>
+  </si>
+  <si>
+    <t>0.351761722696571</t>
+  </si>
+  <si>
+    <t>0.391735652224124</t>
+  </si>
+  <si>
+    <t>0.436211252943172</t>
+  </si>
+  <si>
+    <t>0.485830468054794</t>
+  </si>
+  <si>
+    <t>0.535507298571392</t>
+  </si>
+  <si>
+    <t>0.574574438305587</t>
+  </si>
+  <si>
+    <t>0.611666166412833</t>
+  </si>
+  <si>
+    <t>0.647542940444403</t>
+  </si>
+  <si>
+    <t>0.681869725385136</t>
+  </si>
+  <si>
+    <t>0.714371684809657</t>
+  </si>
+  <si>
+    <t>0.746321293902263</t>
+  </si>
+  <si>
+    <t>0.77582381040534</t>
+  </si>
+  <si>
+    <t>0.802659385404738</t>
   </si>
 </sst>
 </file>
@@ -380,16 +657,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22:L112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,11 +694,14 @@
       <c r="K1" t="s">
         <v>2</v>
       </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
       <c r="N1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -441,7 +721,7 @@
         <v>1.6272160216080502E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -461,7 +741,7 @@
         <v>4.0427071760092699E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -481,7 +761,7 @@
         <v>3.3247098082455503E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -501,7 +781,7 @@
         <v>7.0149338724088406E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -521,7 +801,7 @@
         <v>7.1288114351202206E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -541,7 +821,7 @@
         <v>6.5708551721175595E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -561,7 +841,7 @@
         <v>6.25085562280044E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -581,7 +861,7 @@
         <v>6.26616900663272E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -601,7 +881,7 @@
         <v>6.3413028692755904E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -621,7 +901,7 @@
         <v>6.1279483993070101E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -641,7 +921,7 @@
         <v>6.1507928774649098E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -661,7 +941,7 @@
         <v>6.2184199311789597E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -681,7 +961,7 @@
         <v>5.8532325802594098E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -701,7 +981,7 @@
         <v>5.7879770295838802E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -721,7 +1001,7 @@
         <v>5.8269432181710101E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -741,7 +1021,7 @@
         <v>6.0165412698623501E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -761,7 +1041,7 @@
         <v>5.8513129661972502E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -781,7 +1061,7 @@
         <v>5.7262988295923099E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -801,7 +1081,7 @@
         <v>5.5117642887012902E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -821,7 +1101,7 @@
         <v>5.1415239309197003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -851,6 +1131,10 @@
         <f>C22*(1 - G22)^P22</f>
         <v>3.1043075938212765E-4</v>
       </c>
+      <c r="L22">
+        <f>SUM(J22:K22)/2</f>
+        <v>2.3784390069876119E-4</v>
+      </c>
       <c r="N22">
         <f>(J22+K22)/2</f>
         <v>2.3784390069876119E-4</v>
@@ -859,7 +1143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -890,8 +1174,12 @@
         <f t="shared" ref="K23:K86" si="1">C23*(1 - G23)^P23</f>
         <v>3.4372991792177632E-4</v>
       </c>
+      <c r="L23">
+        <f t="shared" ref="L23:L86" si="2">SUM(J23:K23)/2</f>
+        <v>2.6318744513087889E-4</v>
+      </c>
       <c r="N23">
-        <f t="shared" ref="N23:N86" si="2">(J23+K23)/2</f>
+        <f t="shared" ref="N23:N86" si="3">(J23+K23)/2</f>
         <v>2.6318744513087889E-4</v>
       </c>
       <c r="P23">
@@ -899,7 +1187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -919,7 +1207,7 @@
         <v>4.1083542906524897E-2</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24:I87" si="3">I23+1</f>
+        <f t="shared" ref="I24:I87" si="4">I23+1</f>
         <v>22</v>
       </c>
       <c r="J24">
@@ -930,16 +1218,20 @@
         <f t="shared" si="1"/>
         <v>3.6231757625163627E-4</v>
       </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>2.7708656942994076E-4</v>
+      </c>
       <c r="N24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7708656942994076E-4</v>
       </c>
       <c r="P24">
-        <f t="shared" ref="P24:P87" si="4">P23+1</f>
+        <f t="shared" ref="P24:P87" si="5">P23+1</f>
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -959,7 +1251,7 @@
         <v>3.8385516295752403E-2</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="J25">
@@ -970,16 +1262,20 @@
         <f t="shared" si="1"/>
         <v>3.6660524760722193E-4</v>
       </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>2.7838082058517213E-4</v>
+      </c>
       <c r="N25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7838082058517213E-4</v>
       </c>
       <c r="P25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -999,7 +1295,7 @@
         <v>3.6948682170216698E-2</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="J26">
@@ -1010,16 +1306,20 @@
         <f t="shared" si="1"/>
         <v>3.5166977542682641E-4</v>
       </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>2.6730202901118589E-4</v>
+      </c>
       <c r="N26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6730202901118589E-4</v>
       </c>
       <c r="P26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1039,7 +1339,7 @@
         <v>3.5674655407132598E-2</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="J27">
@@ -1050,16 +1350,20 @@
         <f t="shared" si="1"/>
         <v>3.2771485928867662E-4</v>
       </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>2.4872643163217022E-4</v>
+      </c>
       <c r="N27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4872643163217022E-4</v>
       </c>
       <c r="P27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1079,7 +1383,7 @@
         <v>3.4499465395732697E-2</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="J28">
@@ -1090,16 +1394,20 @@
         <f t="shared" si="1"/>
         <v>2.9803056061603826E-4</v>
       </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>2.2437384456583243E-4</v>
+      </c>
       <c r="N28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2437384456583243E-4</v>
       </c>
       <c r="P28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1119,7 +1427,7 @@
         <v>3.3718112170464297E-2</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="J29">
@@ -1130,16 +1438,20 @@
         <f t="shared" si="1"/>
         <v>2.6687700623462517E-4</v>
       </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>2.0243282516178927E-4</v>
+      </c>
       <c r="N29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0243282516178927E-4</v>
       </c>
       <c r="P29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1159,7 +1471,7 @@
         <v>3.3129365642699998E-2</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="J30">
@@ -1170,16 +1482,20 @@
         <f t="shared" si="1"/>
         <v>2.4767988405583066E-4</v>
       </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>1.8769663773868402E-4</v>
+      </c>
       <c r="N30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8769663773868402E-4</v>
       </c>
       <c r="P30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1199,7 +1515,7 @@
         <v>3.2617262459763E-2</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="J31">
@@ -1210,16 +1526,20 @@
         <f t="shared" si="1"/>
         <v>2.3397113286350985E-4</v>
       </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>1.7635453111820311E-4</v>
+      </c>
       <c r="N31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7635453111820311E-4</v>
       </c>
       <c r="P31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1239,7 +1559,7 @@
         <v>3.33769191323273E-2</v>
       </c>
       <c r="I32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="J32">
@@ -1250,16 +1570,20 @@
         <f t="shared" si="1"/>
         <v>2.2831216466846524E-4</v>
       </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>1.731611163600335E-4</v>
+      </c>
       <c r="N32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.731611163600335E-4</v>
       </c>
       <c r="P32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1279,7 +1603,7 @@
         <v>3.3853975878879797E-2</v>
       </c>
       <c r="I33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="J33">
@@ -1290,16 +1614,20 @@
         <f t="shared" si="1"/>
         <v>2.2987185019472005E-4</v>
       </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>1.7780701131992982E-4</v>
+      </c>
       <c r="N33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7780701131992982E-4</v>
       </c>
       <c r="P33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1319,7 +1647,7 @@
         <v>3.4358865944376302E-2</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="J34">
@@ -1330,16 +1658,20 @@
         <f t="shared" si="1"/>
         <v>2.3346653198596395E-4</v>
       </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>1.8274243829831155E-4</v>
+      </c>
       <c r="N34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8274243829831155E-4</v>
       </c>
       <c r="P34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1359,7 +1691,7 @@
         <v>3.4834722797800498E-2</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="J35">
@@ -1370,16 +1702,20 @@
         <f t="shared" si="1"/>
         <v>2.3849012325241143E-4</v>
       </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>1.8866648523845585E-4</v>
+      </c>
       <c r="N35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8866648523845585E-4</v>
       </c>
       <c r="P35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1399,7 +1735,7 @@
         <v>3.4315995860999003E-2</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="J36">
@@ -1410,16 +1746,20 @@
         <f t="shared" si="1"/>
         <v>2.5424615040289545E-4</v>
       </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>2.006031243025949E-4</v>
+      </c>
       <c r="N36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.006031243025949E-4</v>
       </c>
       <c r="P36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1439,7 +1779,7 @@
         <v>3.2912061483687499E-2</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="J37">
@@ -1450,16 +1790,20 @@
         <f t="shared" si="1"/>
         <v>2.7871385021996365E-4</v>
       </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>2.1450591048865057E-4</v>
+      </c>
       <c r="N37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1450591048865057E-4</v>
       </c>
       <c r="P37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1479,7 +1823,7 @@
         <v>3.2068748592153799E-2</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="J38">
@@ -1490,16 +1834,20 @@
         <f t="shared" si="1"/>
         <v>2.9985525518729146E-4</v>
       </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>2.2756733769556628E-4</v>
+      </c>
       <c r="N38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2756733769556628E-4</v>
       </c>
       <c r="P38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1519,7 +1867,7 @@
         <v>3.1958685022285098E-2</v>
       </c>
       <c r="I39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="J39">
@@ -1530,16 +1878,20 @@
         <f t="shared" si="1"/>
         <v>3.1968391608309081E-4</v>
       </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>2.4315262371327152E-4</v>
+      </c>
       <c r="N39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4315262371327152E-4</v>
       </c>
       <c r="P39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1559,7 +1911,7 @@
         <v>3.2352459123314803E-2</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="J40">
@@ -1570,16 +1922,20 @@
         <f t="shared" si="1"/>
         <v>3.3634309812070358E-4</v>
       </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
+        <v>2.597925067606816E-4</v>
+      </c>
       <c r="N40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.597925067606816E-4</v>
       </c>
       <c r="P40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1599,7 +1955,7 @@
         <v>3.3710944800770498E-2</v>
       </c>
       <c r="I41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="J41">
@@ -1610,16 +1966,20 @@
         <f t="shared" si="1"/>
         <v>3.4819319097404095E-4</v>
       </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
+        <v>2.7539418100520425E-4</v>
+      </c>
       <c r="N41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7539418100520425E-4</v>
       </c>
       <c r="P41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1639,7 +1999,7 @@
         <v>3.5350895170083899E-2</v>
       </c>
       <c r="I42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="J42">
@@ -1650,16 +2010,20 @@
         <f t="shared" si="1"/>
         <v>3.6367957225700486E-4</v>
       </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>2.9307340610484591E-4</v>
+      </c>
       <c r="N42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9307340610484591E-4</v>
       </c>
       <c r="P42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1679,7 +2043,7 @@
         <v>3.6397488341168197E-2</v>
       </c>
       <c r="I43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="J43">
@@ -1690,16 +2054,20 @@
         <f t="shared" si="1"/>
         <v>3.8726347851489329E-4</v>
       </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
+        <v>3.1252014581320363E-4</v>
+      </c>
       <c r="N43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1252014581320363E-4</v>
       </c>
       <c r="P43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1719,7 +2087,7 @@
         <v>3.7118742742725301E-2</v>
       </c>
       <c r="I44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="J44">
@@ -1730,16 +2098,20 @@
         <f t="shared" si="1"/>
         <v>4.1630354563453286E-4</v>
       </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
+        <v>3.3003220147906039E-4</v>
+      </c>
       <c r="N44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3003220147906039E-4</v>
       </c>
       <c r="P44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1759,7 +2131,7 @@
         <v>3.7652296385694298E-2</v>
       </c>
       <c r="I45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="J45">
@@ -1770,16 +2142,20 @@
         <f t="shared" si="1"/>
         <v>4.4426736962179116E-4</v>
       </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>3.4312452185547278E-4</v>
+      </c>
       <c r="N45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4312452185547278E-4</v>
       </c>
       <c r="P45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1799,7 +2175,7 @@
         <v>3.7940994153088797E-2</v>
       </c>
       <c r="I46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="J46">
@@ -1810,16 +2186,20 @@
         <f t="shared" si="1"/>
         <v>4.6329209292599976E-4</v>
       </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
+        <v>3.5000638408020426E-4</v>
+      </c>
       <c r="N46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5000638408020426E-4</v>
       </c>
       <c r="P46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1839,7 +2219,7 @@
         <v>3.7978744987442498E-2</v>
       </c>
       <c r="I47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="J47">
@@ -1850,16 +2230,20 @@
         <f t="shared" si="1"/>
         <v>4.7951844491855291E-4</v>
       </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
+        <v>3.5525193203926771E-4</v>
+      </c>
       <c r="N47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5525193203926771E-4</v>
       </c>
       <c r="P47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1879,7 +2263,7 @@
         <v>3.81010671654275E-2</v>
       </c>
       <c r="I48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="J48">
@@ -1890,16 +2274,20 @@
         <f t="shared" si="1"/>
         <v>4.9691518858252363E-4</v>
       </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>3.6369582121569184E-4</v>
+      </c>
       <c r="N48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6369582121569184E-4</v>
       </c>
       <c r="P48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1919,7 +2307,7 @@
         <v>3.8250606288530498E-2</v>
       </c>
       <c r="I49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="J49">
@@ -1930,16 +2318,20 @@
         <f t="shared" si="1"/>
         <v>5.1264625714492456E-4</v>
       </c>
+      <c r="L49">
+        <f t="shared" si="2"/>
+        <v>3.7710660739299608E-4</v>
+      </c>
       <c r="N49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7710660739299608E-4</v>
       </c>
       <c r="P49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1959,7 +2351,7 @@
         <v>3.8383243162000098E-2</v>
       </c>
       <c r="I50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="J50">
@@ -1970,16 +2362,20 @@
         <f t="shared" si="1"/>
         <v>5.4028800411660776E-4</v>
       </c>
+      <c r="L50">
+        <f t="shared" si="2"/>
+        <v>4.0316236436849836E-4</v>
+      </c>
       <c r="N50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0316236436849836E-4</v>
       </c>
       <c r="P50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1999,7 +2395,7 @@
         <v>3.8795259025866502E-2</v>
       </c>
       <c r="I51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="J51">
@@ -2010,16 +2406,20 @@
         <f t="shared" si="1"/>
         <v>5.7013438868914481E-4</v>
       </c>
+      <c r="L51">
+        <f t="shared" si="2"/>
+        <v>4.3557151786013958E-4</v>
+      </c>
       <c r="N51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3557151786013958E-4</v>
       </c>
       <c r="P51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2039,7 +2439,7 @@
         <v>3.9320327018805501E-2</v>
       </c>
       <c r="I52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="J52">
@@ -2050,16 +2450,20 @@
         <f t="shared" si="1"/>
         <v>5.9534232830185131E-4</v>
       </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
+        <v>4.7228618081006206E-4</v>
+      </c>
       <c r="N52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7228618081006206E-4</v>
       </c>
       <c r="P52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2079,7 +2483,7 @@
         <v>3.9426885104797298E-2</v>
       </c>
       <c r="I53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="J53">
@@ -2090,16 +2494,20 @@
         <f t="shared" si="1"/>
         <v>6.278280127194933E-4</v>
       </c>
+      <c r="L53">
+        <f t="shared" si="2"/>
+        <v>5.1355243724757909E-4</v>
+      </c>
       <c r="N53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.1355243724757909E-4</v>
       </c>
       <c r="P53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2119,7 +2527,7 @@
         <v>3.8988562575003501E-2</v>
       </c>
       <c r="I54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="J54">
@@ -2130,16 +2538,20 @@
         <f t="shared" si="1"/>
         <v>6.7236062519650871E-4</v>
       </c>
+      <c r="L54">
+        <f t="shared" si="2"/>
+        <v>5.5748182020770197E-4</v>
+      </c>
       <c r="N54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.5748182020770197E-4</v>
       </c>
       <c r="P54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2159,7 +2571,7 @@
         <v>3.7740941971940098E-2</v>
       </c>
       <c r="I55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="J55">
@@ -2170,16 +2582,20 @@
         <f t="shared" si="1"/>
         <v>7.4054865783820822E-4</v>
       </c>
+      <c r="L55">
+        <f t="shared" si="2"/>
+        <v>6.1262924197676909E-4</v>
+      </c>
       <c r="N55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1262924197676909E-4</v>
       </c>
       <c r="P55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2199,7 +2615,7 @@
         <v>3.5236627673005998E-2</v>
       </c>
       <c r="I56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="J56">
@@ -2210,16 +2626,20 @@
         <f t="shared" si="1"/>
         <v>8.6342858284026332E-4</v>
       </c>
+      <c r="L56">
+        <f t="shared" si="2"/>
+        <v>7.0550352180492762E-4</v>
+      </c>
       <c r="N56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0550352180492762E-4</v>
       </c>
       <c r="P56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2239,7 +2659,7 @@
         <v>3.2520004521904698E-2</v>
       </c>
       <c r="I57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="J57">
@@ -2250,16 +2670,20 @@
         <f t="shared" si="1"/>
         <v>1.0300228113132935E-3</v>
       </c>
+      <c r="L57">
+        <f t="shared" si="2"/>
+        <v>8.2542781211232508E-4</v>
+      </c>
       <c r="N57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.2542781211232508E-4</v>
       </c>
       <c r="P57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2279,7 +2703,7 @@
         <v>2.9813930751908999E-2</v>
       </c>
       <c r="I58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="J58">
@@ -2290,16 +2714,20 @@
         <f t="shared" si="1"/>
         <v>1.2440093697700233E-3</v>
       </c>
+      <c r="L58">
+        <f t="shared" si="2"/>
+        <v>9.8909493135430969E-4</v>
+      </c>
       <c r="N58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.8909493135430969E-4</v>
       </c>
       <c r="P58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2319,7 +2747,7 @@
         <v>2.70654494292147E-2</v>
       </c>
       <c r="I59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="J59">
@@ -2330,16 +2758,20 @@
         <f t="shared" si="1"/>
         <v>1.519771282729554E-3</v>
       </c>
+      <c r="L59">
+        <f t="shared" si="2"/>
+        <v>1.2037003027272697E-3</v>
+      </c>
       <c r="N59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2037003027272697E-3</v>
       </c>
       <c r="P59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2359,7 +2791,7 @@
         <v>2.50212905797625E-2</v>
       </c>
       <c r="I60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="J60">
@@ -2370,16 +2802,20 @@
         <f t="shared" si="1"/>
         <v>1.8148418763209711E-3</v>
       </c>
+      <c r="L60">
+        <f t="shared" si="2"/>
+        <v>1.4411307738491142E-3</v>
+      </c>
       <c r="N60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4411307738491142E-3</v>
       </c>
       <c r="P60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2399,7 +2835,7 @@
         <v>2.3622540289247301E-2</v>
       </c>
       <c r="I61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="J61">
@@ -2410,16 +2846,20 @@
         <f t="shared" si="1"/>
         <v>2.1132327092388899E-3</v>
       </c>
+      <c r="L61">
+        <f t="shared" si="2"/>
+        <v>1.6803929875476478E-3</v>
+      </c>
       <c r="N61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6803929875476478E-3</v>
       </c>
       <c r="P61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2439,7 +2879,7 @@
         <v>2.2482407723737802E-2</v>
       </c>
       <c r="I62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J62">
@@ -2450,16 +2890,20 @@
         <f t="shared" si="1"/>
         <v>2.4261754552582157E-3</v>
       </c>
+      <c r="L62">
+        <f t="shared" si="2"/>
+        <v>1.9379963919869637E-3</v>
+      </c>
       <c r="N62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9379963919869637E-3</v>
       </c>
       <c r="P62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2479,7 +2923,7 @@
         <v>2.1592407494582602E-2</v>
       </c>
       <c r="I63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="J63">
@@ -2490,16 +2934,20 @@
         <f t="shared" si="1"/>
         <v>2.7566447698613274E-3</v>
       </c>
+      <c r="L63">
+        <f t="shared" si="2"/>
+        <v>2.2059809222541504E-3</v>
+      </c>
       <c r="N63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2059809222541504E-3</v>
       </c>
       <c r="P63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2519,7 +2967,7 @@
         <v>2.09300495409513E-2</v>
       </c>
       <c r="I64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="J64">
@@ -2530,16 +2978,20 @@
         <f t="shared" si="1"/>
         <v>3.1052214050043343E-3</v>
       </c>
+      <c r="L64">
+        <f t="shared" si="2"/>
+        <v>2.4817351074857075E-3</v>
+      </c>
       <c r="N64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4817351074857075E-3</v>
       </c>
       <c r="P64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2559,7 +3011,7 @@
         <v>2.00909814574287E-2</v>
       </c>
       <c r="I65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="J65">
@@ -2570,16 +3022,20 @@
         <f t="shared" si="1"/>
         <v>3.5508585459402462E-3</v>
       </c>
+      <c r="L65">
+        <f t="shared" si="2"/>
+        <v>2.8457810625531011E-3</v>
+      </c>
       <c r="N65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8457810625531011E-3</v>
       </c>
       <c r="P65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2599,7 +3055,7 @@
         <v>1.93528716105918E-2</v>
       </c>
       <c r="I66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="J66">
@@ -2610,16 +3066,20 @@
         <f t="shared" si="1"/>
         <v>4.0365877663371104E-3</v>
       </c>
+      <c r="L66">
+        <f t="shared" si="2"/>
+        <v>3.2505540843471986E-3</v>
+      </c>
       <c r="N66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2505540843471986E-3</v>
       </c>
       <c r="P66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2639,7 +3099,7 @@
         <v>1.8797209599209299E-2</v>
       </c>
       <c r="I67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="J67">
@@ -2650,16 +3110,20 @@
         <f t="shared" si="1"/>
         <v>4.5240327140331381E-3</v>
       </c>
+      <c r="L67">
+        <f t="shared" si="2"/>
+        <v>3.6694558390174678E-3</v>
+      </c>
       <c r="N67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6694558390174678E-3</v>
       </c>
       <c r="P67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2679,7 +3143,7 @@
         <v>1.84652178002211E-2</v>
       </c>
       <c r="I68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="J68">
@@ -2690,16 +3154,20 @@
         <f t="shared" si="1"/>
         <v>4.9759688528386104E-3</v>
       </c>
+      <c r="L68">
+        <f t="shared" si="2"/>
+        <v>4.0374089095078182E-3</v>
+      </c>
       <c r="N68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0374089095078182E-3</v>
       </c>
       <c r="P68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2719,7 +3187,7 @@
         <v>1.8432353016487601E-2</v>
       </c>
       <c r="I69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="J69">
@@ -2730,16 +3198,20 @@
         <f t="shared" si="1"/>
         <v>5.3754237310713032E-3</v>
       </c>
+      <c r="L69">
+        <f t="shared" si="2"/>
+        <v>4.3233853160627046E-3</v>
+      </c>
       <c r="N69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3233853160627046E-3</v>
       </c>
       <c r="P69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2759,7 +3231,7 @@
         <v>1.8953969658115102E-2</v>
       </c>
       <c r="I70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="J70">
@@ -2770,16 +3242,20 @@
         <f t="shared" si="1"/>
         <v>5.6039774215947483E-3</v>
       </c>
+      <c r="L70">
+        <f t="shared" si="2"/>
+        <v>4.4411195291449703E-3</v>
+      </c>
       <c r="N70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4411195291449703E-3</v>
       </c>
       <c r="P70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2799,7 +3275,7 @@
         <v>1.9884804244071099E-2</v>
       </c>
       <c r="I71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="J71">
@@ -2810,16 +3286,20 @@
         <f t="shared" si="1"/>
         <v>5.7087409455579569E-3</v>
       </c>
+      <c r="L71">
+        <f t="shared" si="2"/>
+        <v>4.4342640344127568E-3</v>
+      </c>
       <c r="N71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4342640344127568E-3</v>
       </c>
       <c r="P71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2839,7 +3319,7 @@
         <v>2.1096679311958199E-2</v>
       </c>
       <c r="I72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="J72">
@@ -2850,16 +3330,20 @@
         <f t="shared" si="1"/>
         <v>5.7541102105965122E-3</v>
       </c>
+      <c r="L72">
+        <f t="shared" si="2"/>
+        <v>4.3788825781017815E-3</v>
+      </c>
       <c r="N72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3788825781017815E-3</v>
       </c>
       <c r="P72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2879,7 +3363,7 @@
         <v>2.2484193472702901E-2</v>
       </c>
       <c r="I73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="J73">
@@ -2890,16 +3374,20 @@
         <f t="shared" si="1"/>
         <v>5.730686192263865E-3</v>
       </c>
+      <c r="L73">
+        <f t="shared" si="2"/>
+        <v>4.3159802266684293E-3</v>
+      </c>
       <c r="N73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3159802266684293E-3</v>
       </c>
       <c r="P73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2919,7 +3407,7 @@
         <v>2.3795255279473401E-2</v>
       </c>
       <c r="I74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="J74">
@@ -2930,16 +3418,20 @@
         <f t="shared" si="1"/>
         <v>5.710516809513488E-3</v>
       </c>
+      <c r="L74">
+        <f t="shared" si="2"/>
+        <v>4.3074160227049886E-3</v>
+      </c>
       <c r="N74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3074160227049886E-3</v>
       </c>
       <c r="P74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2959,7 +3451,7 @@
         <v>2.4724649299928101E-2</v>
       </c>
       <c r="I75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="J75">
@@ -2970,16 +3462,20 @@
         <f t="shared" si="1"/>
         <v>5.8145416760757981E-3</v>
       </c>
+      <c r="L75">
+        <f t="shared" si="2"/>
+        <v>4.4269377399644358E-3</v>
+      </c>
       <c r="N75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4269377399644358E-3</v>
       </c>
       <c r="P75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2999,7 +3495,7 @@
         <v>2.53472222335452E-2</v>
       </c>
       <c r="I76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="J76">
@@ -3010,16 +3506,20 @@
         <f t="shared" si="1"/>
         <v>6.0154227151059904E-3</v>
       </c>
+      <c r="L76">
+        <f t="shared" si="2"/>
+        <v>4.6781087770160733E-3</v>
+      </c>
       <c r="N76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.6781087770160733E-3</v>
       </c>
       <c r="P76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3039,7 +3539,7 @@
         <v>2.5837300850499099E-2</v>
       </c>
       <c r="I77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="J77">
@@ -3050,16 +3550,20 @@
         <f t="shared" si="1"/>
         <v>6.2172236837923726E-3</v>
       </c>
+      <c r="L77">
+        <f t="shared" si="2"/>
+        <v>4.9938512680938853E-3</v>
+      </c>
       <c r="N77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9938512680938853E-3</v>
       </c>
       <c r="P77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3079,7 +3583,7 @@
         <v>2.6032294535849598E-2</v>
       </c>
       <c r="I78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="J78">
@@ -3090,16 +3594,20 @@
         <f t="shared" si="1"/>
         <v>6.55437056824568E-3</v>
       </c>
+      <c r="L78">
+        <f t="shared" si="2"/>
+        <v>5.4296540991838026E-3</v>
+      </c>
       <c r="N78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.4296540991838026E-3</v>
       </c>
       <c r="P78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3119,7 +3627,7 @@
         <v>2.6088818349163798E-2</v>
       </c>
       <c r="I79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="J79">
@@ -3130,16 +3638,20 @@
         <f t="shared" si="1"/>
         <v>6.9873336110198442E-3</v>
       </c>
+      <c r="L79">
+        <f t="shared" si="2"/>
+        <v>6.0041117702586107E-3</v>
+      </c>
       <c r="N79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0041117702586107E-3</v>
       </c>
       <c r="P79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3159,7 +3671,7 @@
         <v>2.60133405116185E-2</v>
       </c>
       <c r="I80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="J80">
@@ -3170,16 +3682,20 @@
         <f t="shared" si="1"/>
         <v>7.5420633663424172E-3</v>
       </c>
+      <c r="L80">
+        <f t="shared" si="2"/>
+        <v>6.6999528593651202E-3</v>
+      </c>
       <c r="N80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.6999528593651202E-3</v>
       </c>
       <c r="P80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3199,7 +3715,7 @@
         <v>2.5543553820297799E-2</v>
       </c>
       <c r="I81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="J81">
@@ -3210,16 +3726,20 @@
         <f t="shared" si="1"/>
         <v>8.4076583507443885E-3</v>
       </c>
+      <c r="L81">
+        <f t="shared" si="2"/>
+        <v>7.6441068401247626E-3</v>
+      </c>
       <c r="N81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.6441068401247626E-3</v>
       </c>
       <c r="P81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3239,7 +3759,7 @@
         <v>2.4643544637717799E-2</v>
       </c>
       <c r="I82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="J82">
@@ -3250,16 +3770,20 @@
         <f t="shared" si="1"/>
         <v>9.7655967365863298E-3</v>
       </c>
+      <c r="L82">
+        <f t="shared" si="2"/>
+        <v>8.9648389308208676E-3</v>
+      </c>
       <c r="N82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.9648389308208676E-3</v>
       </c>
       <c r="P82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3279,7 +3803,7 @@
         <v>2.3485656205321101E-2</v>
       </c>
       <c r="I83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="J83">
@@ -3290,16 +3814,20 @@
         <f t="shared" si="1"/>
         <v>1.1624947570269349E-2</v>
       </c>
+      <c r="L83">
+        <f t="shared" si="2"/>
+        <v>1.0797388559360008E-2</v>
+      </c>
       <c r="N83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0797388559360008E-2</v>
       </c>
       <c r="P83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3319,7 +3847,7 @@
         <v>2.20394580437114E-2</v>
       </c>
       <c r="I84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="J84">
@@ -3330,16 +3858,20 @@
         <f t="shared" si="1"/>
         <v>1.4182424210305159E-2</v>
       </c>
+      <c r="L84">
+        <f t="shared" si="2"/>
+        <v>1.3214829755969902E-2</v>
+      </c>
       <c r="N84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3214829755969902E-2</v>
       </c>
       <c r="P84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3359,7 +3891,7 @@
         <v>2.0507664634348499E-2</v>
       </c>
       <c r="I85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="J85">
@@ -3370,16 +3902,20 @@
         <f t="shared" si="1"/>
         <v>1.760534884219989E-2</v>
       </c>
+      <c r="L85">
+        <f t="shared" si="2"/>
+        <v>1.6536989779593059E-2</v>
+      </c>
       <c r="N85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6536989779593059E-2</v>
       </c>
       <c r="P85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3399,7 +3935,7 @@
         <v>1.8865935769556901E-2</v>
       </c>
       <c r="I86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="J86">
@@ -3410,16 +3946,20 @@
         <f t="shared" si="1"/>
         <v>2.2002257428959133E-2</v>
       </c>
+      <c r="L86">
+        <f t="shared" si="2"/>
+        <v>2.0945711633072905E-2</v>
+      </c>
       <c r="N86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0945711633072905E-2</v>
       </c>
       <c r="P86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3439,27 +3979,31 @@
         <v>1.69287009092167E-2</v>
       </c>
       <c r="I87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="J87">
-        <f t="shared" ref="J87:J112" si="5">B87*(1 -F87)^P87</f>
+        <f t="shared" ref="J87:J112" si="6">B87*(1 -F87)^P87</f>
         <v>2.5852525815215795E-2</v>
       </c>
       <c r="K87">
-        <f t="shared" ref="K87:K112" si="6">C87*(1 - G87)^P87</f>
+        <f t="shared" ref="K87:K112" si="7">C87*(1 - G87)^P87</f>
         <v>2.821728610688962E-2</v>
       </c>
+      <c r="L87">
+        <f t="shared" ref="L87:L112" si="8">SUM(J87:K87)/2</f>
+        <v>2.7034905961052708E-2</v>
+      </c>
       <c r="N87">
-        <f t="shared" ref="N87:N112" si="7">(J87+K87)/2</f>
+        <f t="shared" ref="N87:N112" si="9">(J87+K87)/2</f>
         <v>2.7034905961052708E-2</v>
       </c>
       <c r="P87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3479,27 +4023,31 @@
         <v>1.4948258547891599E-2</v>
       </c>
       <c r="I88">
-        <f t="shared" ref="I88:I112" si="8">I87+1</f>
+        <f t="shared" ref="I88:I112" si="10">I87+1</f>
         <v>86</v>
       </c>
       <c r="J88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.3215821489131311E-2</v>
       </c>
       <c r="K88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.6644364279703905E-2</v>
       </c>
+      <c r="L88">
+        <f t="shared" si="8"/>
+        <v>3.4930092884417605E-2</v>
+      </c>
       <c r="N88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.4930092884417605E-2</v>
       </c>
       <c r="P88">
-        <f t="shared" ref="P88:P112" si="9">P87+1</f>
+        <f t="shared" ref="P88:P112" si="11">P87+1</f>
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3519,27 +4067,31 @@
         <v>1.2824945331155999E-2</v>
       </c>
       <c r="I89">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="6"/>
+        <v>4.2210107911702682E-2</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="7"/>
+        <v>4.8206647923593034E-2</v>
+      </c>
+      <c r="L89">
         <f t="shared" si="8"/>
-        <v>87</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="5"/>
-        <v>4.2210107911702682E-2</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="6"/>
-        <v>4.8206647923593034E-2</v>
+        <v>4.5208377917647855E-2</v>
       </c>
       <c r="N89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.5208377917647855E-2</v>
       </c>
       <c r="P89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3559,27 +4111,31 @@
         <v>1.0791476291713399E-2</v>
       </c>
       <c r="I90">
+        <f t="shared" si="10"/>
+        <v>88</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="6"/>
+        <v>5.2149371945359582E-2</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="7"/>
+        <v>6.3204431386946883E-2</v>
+      </c>
+      <c r="L90">
         <f t="shared" si="8"/>
-        <v>88</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="5"/>
-        <v>5.2149371945359582E-2</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="6"/>
-        <v>6.3204431386946883E-2</v>
+        <v>5.7676901666153232E-2</v>
       </c>
       <c r="N90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.7676901666153232E-2</v>
       </c>
       <c r="P90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3599,27 +4155,31 @@
         <v>9.1634397001334397E-3</v>
       </c>
       <c r="I91">
+        <f t="shared" si="10"/>
+        <v>89</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="6"/>
+        <v>6.2027197486190115E-2</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="7"/>
+        <v>8.0780153339431171E-2</v>
+      </c>
+      <c r="L91">
         <f t="shared" si="8"/>
-        <v>89</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="5"/>
-        <v>6.2027197486190115E-2</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="6"/>
-        <v>8.0780153339431171E-2</v>
+        <v>7.1403675412810647E-2</v>
       </c>
       <c r="N91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.1403675412810647E-2</v>
       </c>
       <c r="P91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3639,27 +4199,31 @@
         <v>7.7509464780380101E-3</v>
       </c>
       <c r="I92">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="6"/>
+        <v>7.3504771867987678E-2</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="7"/>
+        <v>0.10128160765071566</v>
+      </c>
+      <c r="L92">
         <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="J92">
-        <f t="shared" si="5"/>
-        <v>7.3504771867987678E-2</v>
-      </c>
-      <c r="K92">
-        <f t="shared" si="6"/>
-        <v>0.10128160765071566</v>
+        <v>8.7393189759351675E-2</v>
       </c>
       <c r="N92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.7393189759351675E-2</v>
       </c>
       <c r="P92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3679,27 +4243,31 @@
         <v>6.4718731014624196E-3</v>
       </c>
       <c r="I93">
+        <f t="shared" si="10"/>
+        <v>91</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="6"/>
+        <v>8.7085683848826825E-2</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="7"/>
+        <v>0.12524470697748971</v>
+      </c>
+      <c r="L93">
         <f t="shared" si="8"/>
-        <v>91</v>
-      </c>
-      <c r="J93">
-        <f t="shared" si="5"/>
-        <v>8.7085683848826825E-2</v>
-      </c>
-      <c r="K93">
-        <f t="shared" si="6"/>
-        <v>0.12524470697748971</v>
+        <v>0.10616519541315828</v>
       </c>
       <c r="N93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.10616519541315828</v>
       </c>
       <c r="P93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3719,27 +4287,31 @@
         <v>5.3824448104191798E-3</v>
       </c>
       <c r="I94">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="6"/>
+        <v>0.10427388015263292</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="7"/>
+        <v>0.15251095987392083</v>
+      </c>
+      <c r="L94">
         <f t="shared" si="8"/>
-        <v>92</v>
-      </c>
-      <c r="J94">
-        <f t="shared" si="5"/>
-        <v>0.10427388015263292</v>
-      </c>
-      <c r="K94">
-        <f t="shared" si="6"/>
-        <v>0.15251095987392083</v>
+        <v>0.12839242001327689</v>
       </c>
       <c r="N94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12839242001327689</v>
       </c>
       <c r="P94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3759,27 +4331,31 @@
         <v>4.1978008631815998E-3</v>
       </c>
       <c r="I95">
+        <f t="shared" si="10"/>
+        <v>93</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="6"/>
+        <v>0.12535520430141212</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="7"/>
+        <v>0.1862254234265544</v>
+      </c>
+      <c r="L95">
         <f t="shared" si="8"/>
-        <v>93</v>
-      </c>
-      <c r="J95">
-        <f t="shared" si="5"/>
-        <v>0.12535520430141212</v>
-      </c>
-      <c r="K95">
-        <f t="shared" si="6"/>
-        <v>0.1862254234265544</v>
+        <v>0.15579031386398326</v>
       </c>
       <c r="N95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.15579031386398326</v>
       </c>
       <c r="P95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3799,27 +4375,31 @@
         <v>2.8741105534957202E-3</v>
       </c>
       <c r="I96">
+        <f t="shared" si="10"/>
+        <v>94</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="6"/>
+        <v>0.15167975092650493</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="7"/>
+        <v>0.22926369069797253</v>
+      </c>
+      <c r="L96">
         <f t="shared" si="8"/>
-        <v>94</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="5"/>
-        <v>0.15167975092650493</v>
-      </c>
-      <c r="K96">
-        <f t="shared" si="6"/>
-        <v>0.22926369069797253</v>
+        <v>0.19047172081223873</v>
       </c>
       <c r="N96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.19047172081223873</v>
       </c>
       <c r="P96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>76</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3839,27 +4419,31 @@
         <v>1.70573501209534E-3</v>
       </c>
       <c r="I97">
+        <f t="shared" si="10"/>
+        <v>95</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="6"/>
+        <v>0.18047026947067221</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="7"/>
+        <v>0.27849240470824943</v>
+      </c>
+      <c r="L97">
         <f t="shared" si="8"/>
-        <v>95</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="5"/>
-        <v>0.18047026947067221</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="6"/>
-        <v>0.27849240470824943</v>
+        <v>0.22948133708946084</v>
       </c>
       <c r="N97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.22948133708946084</v>
       </c>
       <c r="P97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3879,27 +4463,31 @@
         <v>4.4049567682638601E-4</v>
       </c>
       <c r="I98">
+        <f t="shared" si="10"/>
+        <v>96</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="6"/>
+        <v>0.20969236647873668</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="7"/>
+        <v>0.33985116018636102</v>
+      </c>
+      <c r="L98">
         <f t="shared" si="8"/>
-        <v>96</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="5"/>
-        <v>0.20969236647873668</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="6"/>
-        <v>0.33985116018636102</v>
+        <v>0.27477176333254882</v>
       </c>
       <c r="N98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.27477176333254882</v>
       </c>
       <c r="P98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3919,27 +4507,31 @@
         <v>0</v>
       </c>
       <c r="I99">
+        <f t="shared" si="10"/>
+        <v>97</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="6"/>
+        <v>0.24211133286225681</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="7"/>
+        <v>0.387405276620709</v>
+      </c>
+      <c r="L99">
         <f t="shared" si="8"/>
-        <v>97</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="5"/>
-        <v>0.24211133286225681</v>
-      </c>
-      <c r="K99">
-        <f t="shared" si="6"/>
-        <v>0.387405276620709</v>
+        <v>0.31475830474148292</v>
       </c>
       <c r="N99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.31475830474148292</v>
       </c>
       <c r="P99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3959,27 +4551,31 @@
         <v>0</v>
       </c>
       <c r="I100">
+        <f t="shared" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="6"/>
+        <v>0.27922081327096604</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="7"/>
+        <v>0.42430263212217501</v>
+      </c>
+      <c r="L100">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="5"/>
-        <v>0.27922081327096604</v>
-      </c>
-      <c r="K100">
-        <f t="shared" si="6"/>
-        <v>0.42430263212217501</v>
+        <v>0.35176172269657052</v>
       </c>
       <c r="N100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.35176172269657052</v>
       </c>
       <c r="P100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3999,27 +4595,31 @@
         <v>0</v>
       </c>
       <c r="I101">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="6"/>
+        <v>0.32142497518987861</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="7"/>
+        <v>0.46204632925836903</v>
+      </c>
+      <c r="L101">
         <f t="shared" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="5"/>
-        <v>0.32142497518987861</v>
-      </c>
-      <c r="K101">
-        <f t="shared" si="6"/>
-        <v>0.46204632925836903</v>
+        <v>0.39173565222412382</v>
       </c>
       <c r="N101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.39173565222412382</v>
       </c>
       <c r="P101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4039,27 +4639,31 @@
         <v>0</v>
       </c>
       <c r="I102">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="6"/>
+        <v>0.37220160317005152</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="7"/>
+        <v>0.50022090271629205</v>
+      </c>
+      <c r="L102">
         <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="J102">
-        <f t="shared" si="5"/>
-        <v>0.37220160317005152</v>
-      </c>
-      <c r="K102">
-        <f t="shared" si="6"/>
-        <v>0.50022090271629205</v>
+        <v>0.43621125294317176</v>
       </c>
       <c r="N102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.43621125294317176</v>
       </c>
       <c r="P102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -4079,27 +4683,31 @@
         <v>0</v>
       </c>
       <c r="I103">
+        <f t="shared" si="10"/>
+        <v>101</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="6"/>
+        <v>0.43326886768010447</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="7"/>
+        <v>0.53839206842948395</v>
+      </c>
+      <c r="L103">
         <f t="shared" si="8"/>
-        <v>101</v>
-      </c>
-      <c r="J103">
-        <f t="shared" si="5"/>
-        <v>0.43326886768010447</v>
-      </c>
-      <c r="K103">
-        <f t="shared" si="6"/>
-        <v>0.53839206842948395</v>
+        <v>0.48583046805479424</v>
       </c>
       <c r="N103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.48583046805479424</v>
       </c>
       <c r="P103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -4119,27 +4727,31 @@
         <v>0</v>
       </c>
       <c r="I104">
+        <f t="shared" si="10"/>
+        <v>102</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="6"/>
+        <v>0.49488886478537081</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="7"/>
+        <v>0.57612573235741305</v>
+      </c>
+      <c r="L104">
         <f t="shared" si="8"/>
-        <v>102</v>
-      </c>
-      <c r="J104">
-        <f t="shared" si="5"/>
-        <v>0.49488886478537081</v>
-      </c>
-      <c r="K104">
-        <f t="shared" si="6"/>
-        <v>0.57612573235741305</v>
+        <v>0.5355072985713919</v>
       </c>
       <c r="N104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.5355072985713919</v>
       </c>
       <c r="P104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -4159,27 +4771,31 @@
         <v>0</v>
       </c>
       <c r="I105">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="6"/>
+        <v>0.53614189788403599</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="7"/>
+        <v>0.61300697872713805</v>
+      </c>
+      <c r="L105">
         <f t="shared" si="8"/>
-        <v>103</v>
-      </c>
-      <c r="J105">
-        <f t="shared" si="5"/>
-        <v>0.53614189788403599</v>
-      </c>
-      <c r="K105">
-        <f t="shared" si="6"/>
-        <v>0.61300697872713805</v>
+        <v>0.57457443830558708</v>
       </c>
       <c r="N105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.57457443830558708</v>
       </c>
       <c r="P105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -4199,27 +4815,31 @@
         <v>0</v>
       </c>
       <c r="I106">
+        <f t="shared" si="10"/>
+        <v>104</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="6"/>
+        <v>0.57467498315202203</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="7"/>
+        <v>0.64865734967364397</v>
+      </c>
+      <c r="L106">
         <f t="shared" si="8"/>
-        <v>104</v>
-      </c>
-      <c r="J106">
-        <f t="shared" si="5"/>
-        <v>0.57467498315202203</v>
-      </c>
-      <c r="K106">
-        <f t="shared" si="6"/>
-        <v>0.64865734967364397</v>
+        <v>0.611666166412833</v>
       </c>
       <c r="N106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.611666166412833</v>
       </c>
       <c r="P106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -4239,27 +4859,31 @@
         <v>0</v>
       </c>
       <c r="I107">
+        <f t="shared" si="10"/>
+        <v>105</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="6"/>
+        <v>0.61233690384387596</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="7"/>
+        <v>0.68274897704492998</v>
+      </c>
+      <c r="L107">
         <f t="shared" si="8"/>
-        <v>105</v>
-      </c>
-      <c r="J107">
-        <f t="shared" si="5"/>
-        <v>0.61233690384387596</v>
-      </c>
-      <c r="K107">
-        <f t="shared" si="6"/>
-        <v>0.68274897704492998</v>
+        <v>0.64754294044440297</v>
       </c>
       <c r="N107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.64754294044440297</v>
       </c>
       <c r="P107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -4279,27 +4903,31 @@
         <v>0</v>
       </c>
       <c r="I108">
+        <f t="shared" si="10"/>
+        <v>106</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="6"/>
+        <v>0.64872488202508705</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="7"/>
+        <v>0.71501456874518499</v>
+      </c>
+      <c r="L108">
         <f t="shared" si="8"/>
-        <v>106</v>
-      </c>
-      <c r="J108">
-        <f t="shared" si="5"/>
-        <v>0.64872488202508705</v>
-      </c>
-      <c r="K108">
-        <f t="shared" si="6"/>
-        <v>0.71501456874518499</v>
+        <v>0.68186972538513602</v>
       </c>
       <c r="N108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.68186972538513602</v>
       </c>
       <c r="P108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -4319,27 +4947,31 @@
         <v>0</v>
       </c>
       <c r="I109">
+        <f t="shared" si="10"/>
+        <v>107</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="6"/>
+        <v>0.68349057261065205</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="7"/>
+        <v>0.74525279700866098</v>
+      </c>
+      <c r="L109">
         <f t="shared" si="8"/>
-        <v>107</v>
-      </c>
-      <c r="J109">
-        <f t="shared" si="5"/>
-        <v>0.68349057261065205</v>
-      </c>
-      <c r="K109">
-        <f t="shared" si="6"/>
-        <v>0.74525279700866098</v>
+        <v>0.71437168480965652</v>
       </c>
       <c r="N109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.71437168480965652</v>
       </c>
       <c r="P109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -4359,27 +4991,31 @@
         <v>0</v>
       </c>
       <c r="I110">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="6"/>
+        <v>0.71779747026462204</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="7"/>
+        <v>0.77484511753990404</v>
+      </c>
+      <c r="L110">
         <f t="shared" si="8"/>
-        <v>108</v>
-      </c>
-      <c r="J110">
-        <f t="shared" si="5"/>
-        <v>0.71779747026462204</v>
-      </c>
-      <c r="K110">
-        <f t="shared" si="6"/>
-        <v>0.77484511753990404</v>
+        <v>0.74632129390226298</v>
       </c>
       <c r="N110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.74632129390226298</v>
       </c>
       <c r="P110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -4399,27 +5035,31 @@
         <v>0</v>
       </c>
       <c r="I111">
+        <f t="shared" si="10"/>
+        <v>109</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="6"/>
+        <v>0.74980203616034702</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="7"/>
+        <v>0.80184558465033295</v>
+      </c>
+      <c r="L111">
         <f t="shared" si="8"/>
-        <v>109</v>
-      </c>
-      <c r="J111">
-        <f t="shared" si="5"/>
-        <v>0.74980203616034702</v>
-      </c>
-      <c r="K111">
-        <f t="shared" si="6"/>
-        <v>0.80184558465033295</v>
+        <v>0.77582381040533999</v>
       </c>
       <c r="N111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.77582381040533999</v>
       </c>
       <c r="P111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -4439,23 +5079,27 @@
         <v>0</v>
       </c>
       <c r="I112">
+        <f t="shared" si="10"/>
+        <v>110</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="6"/>
+        <v>0.779171431992564</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="7"/>
+        <v>0.82614733881691205</v>
+      </c>
+      <c r="L112">
         <f t="shared" si="8"/>
-        <v>110</v>
-      </c>
-      <c r="J112">
-        <f t="shared" si="5"/>
-        <v>0.779171431992564</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="6"/>
-        <v>0.82614733881691205</v>
+        <v>0.80265938540473802</v>
       </c>
       <c r="N112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.80265938540473802</v>
       </c>
       <c r="P112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>92</v>
       </c>
     </row>
@@ -4463,4 +5107,479 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55105F2-3292-844B-A600-905E1BE58D58}">
+  <dimension ref="A1:A92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>